--- a/2020/Others/Adding new retailers format.xlsx
+++ b/2020/Others/Adding new retailers format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
   <si>
     <t>RType</t>
   </si>
@@ -107,9 +107,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>SBC</t>
-  </si>
-  <si>
     <t>GO</t>
   </si>
   <si>
@@ -234,6 +231,84 @@
   </si>
   <si>
     <t>ZSO-0026</t>
+  </si>
+  <si>
+    <t>Ronju Computer</t>
+  </si>
+  <si>
+    <t>Gurudaspur</t>
+  </si>
+  <si>
+    <t>Jhaotola Bazar, Binnabari,Gurudaspur</t>
+  </si>
+  <si>
+    <t>Rony Computer</t>
+  </si>
+  <si>
+    <t>Md Robiul Islam</t>
+  </si>
+  <si>
+    <t>Najirpur,Gurudaspur,Natore</t>
+  </si>
+  <si>
+    <t>Fahad Electronics</t>
+  </si>
+  <si>
+    <t>Md Hamidul Islam</t>
+  </si>
+  <si>
+    <t>Bir Bazar, Gurudaspur Natore.</t>
+  </si>
+  <si>
+    <t>CD sound &amp; Electronics</t>
+  </si>
+  <si>
+    <t>Bokul Kumar Ghosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motleb Electric &amp; Electronics </t>
+  </si>
+  <si>
+    <t>M.A Motleb Hossain</t>
+  </si>
+  <si>
+    <t>Ranigram, Gurudaspur, Natore</t>
+  </si>
+  <si>
+    <t>Md Ronju Islam</t>
+  </si>
+  <si>
+    <t>B &amp; F Electronics[RET-33095]</t>
+  </si>
+  <si>
+    <t>Biswas Telecom[RET-07880]</t>
+  </si>
+  <si>
+    <t>Imran Telecom</t>
+  </si>
+  <si>
+    <t>Md Imran Ali</t>
+  </si>
+  <si>
+    <t>Malanchi Bazar, Bagatipara, Natore</t>
+  </si>
+  <si>
+    <t>Ma Telecom &amp; Studio</t>
+  </si>
+  <si>
+    <t>Md likhon Ali</t>
+  </si>
+  <si>
+    <t>Jamnogor, Bagatipara, Natore</t>
+  </si>
+  <si>
+    <t>Bondho Electronics &amp; gift corner</t>
+  </si>
+  <si>
+    <t>Mizan &amp; Akteruzzaman</t>
+  </si>
+  <si>
+    <t>Bagatipara, Natore</t>
   </si>
 </sst>
 </file>
@@ -724,10 +799,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,7 +833,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="17" customFormat="1" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>6</v>
@@ -826,57 +901,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="12">
         <v>1711575658</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12">
         <v>1711575658</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="U2" s="12">
         <v>1711575658</v>
@@ -887,57 +960,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="12">
         <v>1750232323</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12">
         <v>1750232323</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="U3" s="12">
         <v>1770603658</v>
@@ -948,394 +1019,847 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="18" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="K4" s="12">
-        <v>1739407837</v>
+        <v>1739617117</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12">
-        <v>1739407837</v>
+        <v>1739617117</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="U4" s="12">
-        <v>1739407837</v>
+        <v>1739617117</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="17" customFormat="1">
       <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1718184691</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="M5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="12">
-        <v>1710592510</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>49</v>
+      <c r="O5" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12">
-        <v>1710592510</v>
+        <v>1718184691</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="S5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="U5" s="12">
-        <v>1710592510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>1718184691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="17" customFormat="1">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K6" s="12">
-        <v>1713698589</v>
+        <v>1763074323</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12">
-        <v>1713698589</v>
+        <v>1763074323</v>
       </c>
       <c r="R6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1763074323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="17" customFormat="1">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1739407837</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
+        <v>1739407837</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="12">
-        <v>1713698589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="U7" s="12">
+        <v>1739407837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="17" customFormat="1">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1710592510</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="M8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="12" t="s">
+      <c r="O8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12">
+        <v>1710592510</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="12"/>
+      <c r="U8" s="12">
+        <v>1710592510</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1713698589</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="12"/>
+      <c r="O9" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="12">
+        <v>1713698589</v>
+      </c>
       <c r="R9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="U9" s="12">
-        <v>1862217770</v>
+        <v>1713698589</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1747476098</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
-        <v>1717436223</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="12"/>
+      <c r="O10" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12">
-        <v>1717436223</v>
+        <v>1747476098</v>
       </c>
       <c r="R10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1747476098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1773394293</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12">
+        <v>1773394293</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="12"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="18"/>
+      <c r="U11" s="12">
+        <v>1773394293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1713786903</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12">
+        <v>1713786903</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1713786903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1777312980</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12">
+        <v>1777312980</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="12">
+        <v>177312980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1717523378</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12">
+        <v>1717523378</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="12">
+        <v>1717523378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="12">
+        <v>1723656356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="12">
+        <v>1825557696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="12">
+        <v>1862217770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12">
+        <v>1309179915</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12">
+        <v>1309179915</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A2:U11">
     <sortCondition ref="C1"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="4">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1366,13 +1890,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">

--- a/2020/Others/Adding new retailers format.xlsx
+++ b/2020/Others/Adding new retailers format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="New Retailers Format" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,11 @@
     <sheet name="Re-mapping Format" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>RType</t>
   </si>
@@ -104,6 +96,12 @@
     <t>ZSO-ID</t>
   </si>
   <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>DSR-0156</t>
+  </si>
+  <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
   <si>
@@ -113,23 +111,74 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>S.N</t>
-  </si>
-  <si>
-    <t>RET-26738</t>
-  </si>
-  <si>
-    <t>Vai Vai Electronics</t>
-  </si>
-  <si>
-    <t>Malonchi Bazar Baghatipar Natore</t>
+    <t>DSR-0155</t>
+  </si>
+  <si>
+    <t>RET-31608</t>
+  </si>
+  <si>
+    <t>U B E</t>
+  </si>
+  <si>
+    <t>Swastidip Enterprise</t>
+  </si>
+  <si>
+    <t>bKash</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DEL-0179</t>
+  </si>
+  <si>
+    <t>DSR-0247</t>
+  </si>
+  <si>
+    <t>Naldanga</t>
+  </si>
+  <si>
+    <t>Natore</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>ZSO-0022</t>
+  </si>
+  <si>
+    <t>Friends Telecom</t>
+  </si>
+  <si>
+    <t>Md Faruk Hosen</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>DSR-0619</t>
+  </si>
+  <si>
+    <t>Bonpara</t>
+  </si>
+  <si>
+    <t>Bondhon Telecom</t>
+  </si>
+  <si>
+    <t>Boraigram</t>
+  </si>
+  <si>
+    <t>Bonpara, Natore</t>
+  </si>
+  <si>
+    <t>Md Hakim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,14 +208,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,14 +222,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -209,14 +246,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,29 +304,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,499 +615,299 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="11" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="15" customFormat="1" ht="15.75">
-      <c r="A1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15.75">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="15" customFormat="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:21" s="15" customFormat="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-    </row>
-    <row r="4" spans="1:21" s="15" customFormat="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" s="15" customFormat="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" s="15" customFormat="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="1:21" s="15" customFormat="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-    </row>
-    <row r="8" spans="1:21" s="15" customFormat="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+    <row r="2" spans="1:20" s="2" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1744747452</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
+        <v>1744747452</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1744747452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1748971798</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>1748971798</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1748971798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:U11">
-    <sortCondition ref="C1"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -1070,226 +920,220 @@
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="6" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="2.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,41 +1148,51 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
